--- a/Create SAN Config - Generalized.xlsx
+++ b/Create SAN Config - Generalized.xlsx
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +157,15 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +190,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -196,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -204,6 +217,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +502,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+      <selection activeCell="F3" sqref="F3:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,11 +552,11 @@
         <v>7</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" t="str">
+      <c r="D3" s="7" t="str">
         <f>CONCATENATE("A_",SUBSTITUTE(B1,"-","_"),"_A")</f>
         <v>A_SERVER1_A</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="7" t="str">
         <f>CONCATENATE("Z_",$D$3,"_",A7)</f>
         <v>Z_A_SERVER1_A_A_Storage1_1_1</v>
       </c>
@@ -555,11 +570,11 @@
         <v>8</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" t="str">
+      <c r="D4" s="7" t="str">
         <f>CONCATENATE("A_",SUBSTITUTE(B1,"-","_"),"_B")</f>
         <v>A_SERVER1_B</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F6" si="0">CONCATENATE("Z_",$D$3,"_",A8)</f>
         <v>Z_A_SERVER1_A_A_Storage1_1_2</v>
       </c>
@@ -573,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="F5" t="str">
+      <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Z_A_SERVER1_A_A_Storage1_1_3</v>
       </c>
@@ -587,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="F6" t="str">
+      <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Z_A_SERVER1_A_A_Storage1_1_4</v>
       </c>
@@ -601,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="F7" t="str">
+      <c r="F7" s="7" t="str">
         <f>CONCATENATE("Z_",$D$4,"_",A7)</f>
         <v>Z_A_SERVER1_B_A_Storage1_1_1</v>
       </c>
@@ -612,7 +627,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="F8" t="str">
+      <c r="F8" s="7" t="str">
         <f t="shared" ref="F8:F10" si="1">CONCATENATE("Z_",$D$4,"_",A8)</f>
         <v>Z_A_SERVER1_B_A_Storage1_1_2</v>
       </c>
@@ -623,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="F9" t="str">
+      <c r="F9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Z_A_SERVER1_B_A_Storage1_1_3</v>
       </c>
@@ -634,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="F10" t="str">
+      <c r="F10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Z_A_SERVER1_B_A_Storage1_1_4</v>
       </c>
@@ -805,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -859,11 +874,11 @@
         <v>C0:03:FF:00:00:00:00:01</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" t="str">
+      <c r="D3" s="8" t="str">
         <f>CONCATENATE("A_",SUBSTITUTE(B1,"-","_"),"_A")</f>
         <v>A_SERVER1_A</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="7" t="str">
         <f>CONCATENATE("Z_",$D$3,"_",A7)</f>
         <v>Z_A_SERVER1_A_Storage1_2_1</v>
       </c>
@@ -878,11 +893,11 @@
         <v>C0:03:FF:00:00:00:00:02</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" t="str">
+      <c r="D4" s="8" t="str">
         <f>CONCATENATE("A_",SUBSTITUTE(B1,"-","_"),"_B")</f>
         <v>A_SERVER1_B</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F6" si="0">CONCATENATE("Z_",$D$3,"_",A8)</f>
         <v>Z_A_SERVER1_A_Storage1_2_2</v>
       </c>
@@ -897,7 +912,7 @@
         <v>C0:03:FF:00:00:00:00:03</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="F5" t="str">
+      <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Z_A_SERVER1_A_Storage1_2_3</v>
       </c>
@@ -911,7 +926,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="F6" t="str">
+      <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Z_A_SERVER1_A_Storage1_2_4</v>
       </c>
@@ -925,7 +940,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="F7" t="str">
+      <c r="F7" s="7" t="str">
         <f>CONCATENATE("Z_",$D$4,"_",A7)</f>
         <v>Z_A_SERVER1_B_Storage1_2_1</v>
       </c>
@@ -936,7 +951,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="F8" t="str">
+      <c r="F8" s="7" t="str">
         <f t="shared" ref="F8:F10" si="1">CONCATENATE("Z_",$D$4,"_",A8)</f>
         <v>Z_A_SERVER1_B_Storage1_2_2</v>
       </c>
@@ -947,7 +962,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="F9" t="str">
+      <c r="F9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Z_A_SERVER1_B_Storage1_2_3</v>
       </c>
@@ -958,7 +973,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="F10" t="str">
+      <c r="F10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Z_A_SERVER1_B_Storage1_2_4</v>
       </c>
@@ -1130,7 +1145,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1183,11 +1198,11 @@
         <v>C0:03:FF:00:00:00:00:01</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" t="str">
+      <c r="D3" s="8" t="str">
         <f>CONCATENATE("A_",SUBSTITUTE(B1,"-","_"),"_A")</f>
         <v>A_SERVER1_A</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="8" t="str">
         <f>CONCATENATE("Z_",$D$3,"_",A7)</f>
         <v>Z_A_SERVER1_A_Storage2_1_1</v>
       </c>
@@ -1202,11 +1217,11 @@
         <v>C0:03:FF:00:00:00:00:02</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" t="str">
+      <c r="D4" s="8" t="str">
         <f>CONCATENATE("A_",SUBSTITUTE(B1,"-","_"),"_B")</f>
         <v>A_SERVER1_B</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="8" t="str">
         <f t="shared" ref="F4:F6" si="0">CONCATENATE("Z_",$D$3,"_",A8)</f>
         <v>Z_A_SERVER1_A_Storage2_1_2</v>
       </c>
@@ -1221,7 +1236,7 @@
         <v>C0:03:FF:00:00:00:00:03</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="F5" t="str">
+      <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Z_A_SERVER1_A_Storage2_1_3</v>
       </c>
@@ -1235,7 +1250,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="F6" t="str">
+      <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Z_A_SERVER1_A_Storage2_1_4</v>
       </c>
@@ -1249,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="F7" t="str">
+      <c r="F7" s="8" t="str">
         <f>CONCATENATE("Z_",$D$4,"_",A7)</f>
         <v>Z_A_SERVER1_B_Storage2_1_1</v>
       </c>
@@ -1260,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="F8" t="str">
+      <c r="F8" s="8" t="str">
         <f t="shared" ref="F8:F10" si="1">CONCATENATE("Z_",$D$4,"_",A8)</f>
         <v>Z_A_SERVER1_B_Storage2_1_2</v>
       </c>
@@ -1271,7 +1286,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="F9" t="str">
+      <c r="F9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Z_A_SERVER1_B_Storage2_1_3</v>
       </c>
@@ -1282,7 +1297,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="F10" t="str">
+      <c r="F10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Z_A_SERVER1_B_Storage2_1_4</v>
       </c>
